--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/2_fold/55.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/2_fold/55.xlsx
@@ -479,13 +479,13 @@
         <v>0.1986412589657572</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.799771912623518</v>
+        <v>-1.792895810092116</v>
       </c>
       <c r="F2" t="n">
-        <v>0.04218618761970061</v>
+        <v>0.0430786564614781</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.07785323262805374</v>
+        <v>-0.07974520361185718</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>0.2242768922205599</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.840122679807622</v>
+        <v>-1.836967558478975</v>
       </c>
       <c r="F3" t="n">
-        <v>0.01920078639134666</v>
+        <v>0.02126589947849317</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.0626639481075021</v>
+        <v>-0.06248136188943123</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>0.2678531235458306</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.940818192064151</v>
+        <v>-1.937919635852276</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.0168788799071077</v>
+        <v>-0.01842928874158888</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.06523117329434353</v>
+        <v>-0.06773543771633292</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>0.3165241225361151</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.987008570188281</v>
+        <v>-1.980627496670528</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.03696493791402578</v>
+        <v>-0.03779916804831514</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.06147084161355618</v>
+        <v>-0.06319596657050174</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>0.3598889734096533</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.947614806629928</v>
+        <v>-1.937046842249515</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.02205582879706566</v>
+        <v>-0.02087374043696884</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.07714177598522583</v>
+        <v>-0.08044092006347207</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>0.387535970050689</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.821533513985061</v>
+        <v>-1.808979137473566</v>
       </c>
       <c r="F7" t="n">
-        <v>0.01900718203942668</v>
+        <v>0.02027426743207373</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.06828477038966686</v>
+        <v>-0.06914261081077573</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>0.3924823009926325</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.55308691387591</v>
+        <v>-1.537744949500593</v>
       </c>
       <c r="F8" t="n">
-        <v>0.05647828124111085</v>
+        <v>0.05648300329847476</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.0642584294773797</v>
+        <v>-0.06458110339724635</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>0.3747671716693239</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.150875446781264</v>
+        <v>-1.131415061375063</v>
       </c>
       <c r="F9" t="n">
-        <v>0.05094088197237504</v>
+        <v>0.04873882922167537</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.04950042619606446</v>
+        <v>-0.04934145026481308</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>0.3425910059118106</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.6456806306372769</v>
+        <v>-0.6253852280872257</v>
       </c>
       <c r="F10" t="n">
-        <v>0.04543024102870133</v>
+        <v>0.0423876620672271</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.0200741387233481</v>
+        <v>-0.02119011828035029</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>0.3115996983795892</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.1380815002855033</v>
+        <v>-0.1183133941410879</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.04918090031444042</v>
+        <v>-0.05297586041589637</v>
       </c>
       <c r="G11" t="n">
-        <v>0.01857747481931159</v>
+        <v>0.01733872177084795</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.3018468798912204</v>
       </c>
       <c r="E12" t="n">
-        <v>0.4464415185433562</v>
+        <v>0.4676419820881552</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.2306653050004097</v>
+        <v>-0.2314428704463322</v>
       </c>
       <c r="G12" t="n">
-        <v>0.07958960399916885</v>
+        <v>0.07765356047996901</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.3292064422532798</v>
       </c>
       <c r="E13" t="n">
-        <v>1.025921380107568</v>
+        <v>1.050285622086182</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.5150150073016215</v>
+        <v>-0.5118040082941682</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1708827130346088</v>
+        <v>0.1684618716260483</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.4060548652721029</v>
       </c>
       <c r="E14" t="n">
-        <v>1.613891500812076</v>
+        <v>1.641021294386815</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.8266881075294921</v>
+        <v>-0.8212451494080343</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2767528131524143</v>
+        <v>0.271191803596859</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.5365278255504753</v>
       </c>
       <c r="E15" t="n">
-        <v>2.294813746705875</v>
+        <v>2.327394368497678</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.164527701629865</v>
+        <v>-1.158315048158091</v>
       </c>
       <c r="G15" t="n">
-        <v>0.3985740230454811</v>
+        <v>0.3937433583622093</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.713389423987318</v>
       </c>
       <c r="E16" t="n">
-        <v>2.835881245633865</v>
+        <v>2.872508670586532</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.513836386057596</v>
+        <v>-1.507385268688945</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5248701693004056</v>
+        <v>0.5223013700944429</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.9205298932217586</v>
       </c>
       <c r="E17" t="n">
-        <v>3.334188941112601</v>
+        <v>3.37092812142288</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.855104980813723</v>
+        <v>-1.84863969727298</v>
       </c>
       <c r="G17" t="n">
-        <v>0.646741747805354</v>
+        <v>0.6412515691102572</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>1.133971562822892</v>
       </c>
       <c r="E18" t="n">
-        <v>3.748039492599706</v>
+        <v>3.781076579936686</v>
       </c>
       <c r="F18" t="n">
-        <v>-2.167679206988538</v>
+        <v>-2.157091567369108</v>
       </c>
       <c r="G18" t="n">
-        <v>0.8004667512680643</v>
+        <v>0.7967142896828835</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>1.33927954202143</v>
       </c>
       <c r="E19" t="n">
-        <v>4.096872036243242</v>
+        <v>4.127315140068319</v>
       </c>
       <c r="F19" t="n">
-        <v>-2.5223993691553</v>
+        <v>-2.509864667882822</v>
       </c>
       <c r="G19" t="n">
-        <v>0.9442848783813081</v>
+        <v>0.9401814105320773</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>1.528975207865279</v>
       </c>
       <c r="E20" t="n">
-        <v>4.407817939637073</v>
+        <v>4.439888579233574</v>
       </c>
       <c r="F20" t="n">
-        <v>-2.846182972502458</v>
+        <v>-2.830439633251209</v>
       </c>
       <c r="G20" t="n">
-        <v>1.067132348741463</v>
+        <v>1.060173610206193</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.695711535658465</v>
       </c>
       <c r="E21" t="n">
-        <v>4.627840628488967</v>
+        <v>4.654194430636905</v>
       </c>
       <c r="F21" t="n">
-        <v>-3.120088270924279</v>
+        <v>-3.102406527125148</v>
       </c>
       <c r="G21" t="n">
-        <v>1.177016197618585</v>
+        <v>1.167863276428222</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.835030292068251</v>
       </c>
       <c r="E22" t="n">
-        <v>4.795752266291961</v>
+        <v>4.821882557724674</v>
       </c>
       <c r="F22" t="n">
-        <v>-3.339738704253987</v>
+        <v>-3.317666234115987</v>
       </c>
       <c r="G22" t="n">
-        <v>1.263551046850333</v>
+        <v>1.251826178415764</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.941273677250636</v>
       </c>
       <c r="E23" t="n">
-        <v>4.908952573457664</v>
+        <v>4.933803187344759</v>
       </c>
       <c r="F23" t="n">
-        <v>-3.4796233575831</v>
+        <v>-3.45752570313916</v>
       </c>
       <c r="G23" t="n">
-        <v>1.341299721346981</v>
+        <v>1.328332951825706</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>2.014727771437121</v>
       </c>
       <c r="E24" t="n">
-        <v>4.97865171416798</v>
+        <v>5.00361723145093</v>
       </c>
       <c r="F24" t="n">
-        <v>-3.595786755744652</v>
+        <v>-3.572676219996154</v>
       </c>
       <c r="G24" t="n">
-        <v>1.403062657647698</v>
+        <v>1.389371839330625</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>2.06032170780436</v>
       </c>
       <c r="E25" t="n">
-        <v>4.973682535802033</v>
+        <v>4.995887223546222</v>
       </c>
       <c r="F25" t="n">
-        <v>-3.697293674858212</v>
+        <v>-3.674374382432952</v>
       </c>
       <c r="G25" t="n">
-        <v>1.44232184257118</v>
+        <v>1.428509824781767</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>2.083843371716133</v>
       </c>
       <c r="E26" t="n">
-        <v>4.963421505150274</v>
+        <v>4.982888973642521</v>
       </c>
       <c r="F26" t="n">
-        <v>-3.715058054661211</v>
+        <v>-3.693302749376154</v>
       </c>
       <c r="G26" t="n">
-        <v>1.467657254347636</v>
+        <v>1.452774903555738</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>2.093553773059436</v>
       </c>
       <c r="E27" t="n">
-        <v>4.922778757419169</v>
+        <v>4.938999024464173</v>
       </c>
       <c r="F27" t="n">
-        <v>-3.667781603343384</v>
+        <v>-3.649875561819468</v>
       </c>
       <c r="G27" t="n">
-        <v>1.463185466024021</v>
+        <v>1.448926426804158</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>2.091173685057894</v>
       </c>
       <c r="E28" t="n">
-        <v>4.772226976505001</v>
+        <v>4.788037998578466</v>
       </c>
       <c r="F28" t="n">
-        <v>-3.598069083470538</v>
+        <v>-3.581732339010558</v>
       </c>
       <c r="G28" t="n">
-        <v>1.416216735444408</v>
+        <v>1.400912547528002</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>2.07866241275426</v>
       </c>
       <c r="E29" t="n">
-        <v>4.644559859595423</v>
+        <v>4.658914913981686</v>
       </c>
       <c r="F29" t="n">
-        <v>-3.50858137436723</v>
+        <v>-3.492945068416228</v>
       </c>
       <c r="G29" t="n">
-        <v>1.371440613500768</v>
+        <v>1.357083985095384</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>2.056524386286615</v>
       </c>
       <c r="E30" t="n">
-        <v>4.494499172647101</v>
+        <v>4.505200928652824</v>
       </c>
       <c r="F30" t="n">
-        <v>-3.382175833783374</v>
+        <v>-3.362827990744346</v>
       </c>
       <c r="G30" t="n">
-        <v>1.318695232745982</v>
+        <v>1.304738405197408</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>2.023886087442956</v>
       </c>
       <c r="E31" t="n">
-        <v>4.340050120388592</v>
+        <v>4.348881941678211</v>
       </c>
       <c r="F31" t="n">
-        <v>-3.261025156035982</v>
+        <v>-3.24075336377275</v>
       </c>
       <c r="G31" t="n">
-        <v>1.252507728695287</v>
+        <v>1.241664310968647</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.982096646150517</v>
       </c>
       <c r="E32" t="n">
-        <v>4.20207790029186</v>
+        <v>4.212552997544115</v>
       </c>
       <c r="F32" t="n">
-        <v>-3.122510686351961</v>
+        <v>-3.101042639556541</v>
       </c>
       <c r="G32" t="n">
-        <v>1.183161168268143</v>
+        <v>1.171341858686296</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.929117683558258</v>
       </c>
       <c r="E33" t="n">
-        <v>3.997790680595607</v>
+        <v>4.007340254604538</v>
       </c>
       <c r="F33" t="n">
-        <v>-2.999684465249944</v>
+        <v>-2.975564983244693</v>
       </c>
       <c r="G33" t="n">
-        <v>1.11313777961884</v>
+        <v>1.102232975146468</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.867120727988843</v>
       </c>
       <c r="E34" t="n">
-        <v>3.741853597452994</v>
+        <v>3.752245271691821</v>
       </c>
       <c r="F34" t="n">
-        <v>-2.921133041001433</v>
+        <v>-2.898066577788332</v>
       </c>
       <c r="G34" t="n">
-        <v>1.054127802761277</v>
+        <v>1.04359131876329</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.798251518623636</v>
       </c>
       <c r="E35" t="n">
-        <v>3.500918490555498</v>
+        <v>3.511182669245499</v>
       </c>
       <c r="F35" t="n">
-        <v>-2.829555034505038</v>
+        <v>-2.80389065273223</v>
       </c>
       <c r="G35" t="n">
-        <v>0.9585738239644759</v>
+        <v>0.946016299414739</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.723537881417138</v>
       </c>
       <c r="E36" t="n">
-        <v>3.241812906921706</v>
+        <v>3.249473657985077</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.76402861848529</v>
+        <v>-2.742163131861741</v>
       </c>
       <c r="G36" t="n">
-        <v>0.8865545790693629</v>
+        <v>0.8744802783898653</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>1.647031912048567</v>
       </c>
       <c r="E37" t="n">
-        <v>2.994211829045502</v>
+        <v>3.00390306477535</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.665745290532154</v>
+        <v>-2.644359879740602</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8333590288458849</v>
+        <v>0.8238047327795897</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>1.569311350286331</v>
       </c>
       <c r="E38" t="n">
-        <v>2.707228792754353</v>
+        <v>2.713417835939308</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.577408976416077</v>
+        <v>-2.559130679369973</v>
       </c>
       <c r="G38" t="n">
-        <v>0.7666095999688866</v>
+        <v>0.7560510797032015</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>1.493587033701824</v>
       </c>
       <c r="E39" t="n">
-        <v>2.451926039317625</v>
+        <v>2.456970770601393</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.46338073519257</v>
+        <v>-2.442170040523483</v>
       </c>
       <c r="G39" t="n">
-        <v>0.6970930454766416</v>
+        <v>0.686567579612504</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>1.420478774480462</v>
       </c>
       <c r="E40" t="n">
-        <v>2.216562960109533</v>
+        <v>2.220922993075536</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.366885492961231</v>
+        <v>-2.344385676631799</v>
       </c>
       <c r="G40" t="n">
-        <v>0.6445633053414739</v>
+        <v>0.6363484995474056</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>1.347900291307161</v>
       </c>
       <c r="E41" t="n">
-        <v>2.015653585447592</v>
+        <v>2.020504712379441</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.27186353262743</v>
+        <v>-2.250845655300702</v>
       </c>
       <c r="G41" t="n">
-        <v>0.5798805635707434</v>
+        <v>0.57197426552445</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>1.276466882198067</v>
       </c>
       <c r="E42" t="n">
-        <v>1.761901240845344</v>
+        <v>1.762987314039042</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.174191711102919</v>
+        <v>-2.15380186740559</v>
       </c>
       <c r="G42" t="n">
-        <v>0.5101184620955755</v>
+        <v>0.5029472309789297</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>1.203305673413786</v>
       </c>
       <c r="E43" t="n">
-        <v>1.544949463299106</v>
+        <v>1.546118959506233</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.09248359150664</v>
+        <v>-2.071819081472644</v>
       </c>
       <c r="G43" t="n">
-        <v>0.4567954163232722</v>
+        <v>0.4499877836236467</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>1.128623866589509</v>
       </c>
       <c r="E44" t="n">
-        <v>1.313959009209988</v>
+        <v>1.312096944589489</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.003893073302473</v>
+        <v>-1.983260830660464</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4101918581798014</v>
+        <v>0.4062882907589757</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>1.05293727260459</v>
       </c>
       <c r="E45" t="n">
-        <v>1.103525244845056</v>
+        <v>1.102188902611072</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.925436877210801</v>
+        <v>-1.905871032523473</v>
       </c>
       <c r="G45" t="n">
-        <v>0.3513156729475492</v>
+        <v>0.3481314322651579</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.9760869727623355</v>
       </c>
       <c r="E46" t="n">
-        <v>0.903390287590795</v>
+        <v>0.9007034369507347</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.858578841014433</v>
+        <v>-1.839258543310028</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2819675385012835</v>
+        <v>0.2783441464840493</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.9012069223139456</v>
       </c>
       <c r="E47" t="n">
-        <v>0.7423571133478856</v>
+        <v>0.7386140958774325</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.81152432639271</v>
+        <v>-1.794202245962796</v>
       </c>
       <c r="G47" t="n">
-        <v>0.244269780546132</v>
+        <v>0.2419685645907904</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.8290471300838873</v>
       </c>
       <c r="E48" t="n">
-        <v>0.5820904864170495</v>
+        <v>0.5790510554938179</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.74454351670488</v>
+        <v>-1.726147168224678</v>
       </c>
       <c r="G48" t="n">
-        <v>0.2003530730427215</v>
+        <v>0.1995471752526156</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.7612620779143165</v>
       </c>
       <c r="E49" t="n">
-        <v>0.454020420612419</v>
+        <v>0.4498980645337325</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.696498944055859</v>
+        <v>-1.678490591289058</v>
       </c>
       <c r="G49" t="n">
-        <v>0.1455992438891558</v>
+        <v>0.1425236105261342</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.6989314817603187</v>
       </c>
       <c r="E50" t="n">
-        <v>0.3555135819440581</v>
+        <v>0.3551594276417654</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.632748808614499</v>
+        <v>-1.612810708404983</v>
       </c>
       <c r="G50" t="n">
-        <v>0.1131854681242107</v>
+        <v>0.1120962468922707</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.6412743758489502</v>
       </c>
       <c r="E51" t="n">
-        <v>0.2242199249790039</v>
+        <v>0.2228741386302918</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.582530515558961</v>
+        <v>-1.564685860780775</v>
       </c>
       <c r="G51" t="n">
-        <v>0.07598510021139028</v>
+        <v>0.07456848300221966</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.5897716553212717</v>
       </c>
       <c r="E52" t="n">
-        <v>0.1174888364018468</v>
+        <v>0.1163020259843861</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.53747579223085</v>
+        <v>-1.51766518757016</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04600003595061217</v>
+        <v>0.04546486944936994</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.544255628870009</v>
       </c>
       <c r="E53" t="n">
-        <v>0.02474448173656769</v>
+        <v>0.02123599311518845</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.520839984137823</v>
+        <v>-1.504255331666238</v>
       </c>
       <c r="G53" t="n">
-        <v>0.006747147103615624</v>
+        <v>0.006356790361533053</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.5050359682731357</v>
       </c>
       <c r="E54" t="n">
-        <v>-0.06770867939127082</v>
+        <v>-0.07221667015467598</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.50284107548575</v>
+        <v>-1.485848752061748</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.01432582089235798</v>
+        <v>-0.01513801475894914</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>0.4718563752981184</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.1396476493111974</v>
+        <v>-0.1439651837609252</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.489380063960386</v>
+        <v>-1.471666052769268</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.04412200285858001</v>
+        <v>-0.04499873150914449</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>0.4435092801418895</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.2103305519723261</v>
+        <v>-0.2171633689778924</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.495295227818234</v>
+        <v>-1.477990461598655</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.07443918515395255</v>
+        <v>-0.07439511261855614</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>0.4202769337207699</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.264771151320753</v>
+        <v>-0.2703337348954297</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.491238980542642</v>
+        <v>-1.473244793947933</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.1103661715976408</v>
+        <v>-0.1136637416567657</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>0.3995219941641124</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.3504670483608477</v>
+        <v>-0.3578082735425941</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.49049761753651</v>
+        <v>-1.472578983859623</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.1298116038221895</v>
+        <v>-0.1321458741790784</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>0.3803383567621877</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.4253226757125445</v>
+        <v>-0.4335532216978258</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.511920804786973</v>
+        <v>-1.495990944269849</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.1531165309321674</v>
+        <v>-0.1550950729676424</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>0.360971785343757</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.4911434333079753</v>
+        <v>-0.4961267778460133</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.527087266030266</v>
+        <v>-1.511805114381557</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.1869705341931026</v>
+        <v>-0.1906915153958575</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>0.3400802597358419</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.5639591318784665</v>
+        <v>-0.5699844770748055</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.556816552183832</v>
+        <v>-1.542553577916166</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.2086825539523243</v>
+        <v>-0.2118557765008665</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>0.3179170457098408</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.6193158103554903</v>
+        <v>-0.6259109504737402</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.583722835043346</v>
+        <v>-1.567223966613873</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.2205915826240853</v>
+        <v>-0.2228140976233619</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>0.2932586730507714</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.6722862758446224</v>
+        <v>-0.6796369451410966</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.629328465063912</v>
+        <v>-1.613728361552701</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.2546029877971506</v>
+        <v>-0.2575212192480421</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>0.2660939446178048</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.7290894778941216</v>
+        <v>-0.7375435345946276</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.671804158061772</v>
+        <v>-1.657317673078881</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.274816541352894</v>
+        <v>-0.27636065411089</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>0.2364561742481111</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.806764173492068</v>
+        <v>-0.8175178721287942</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.716374870510083</v>
+        <v>-1.70181283260937</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.3033991545765932</v>
+        <v>-0.307282259748842</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>0.204194307718516</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.8850031549450006</v>
+        <v>-0.900219984800175</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.755400313594052</v>
+        <v>-1.740826470549929</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.3223440487205683</v>
+        <v>-0.3247522979761583</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>0.1704376558058065</v>
       </c>
       <c r="E67" t="n">
-        <v>-0.9375108588124702</v>
+        <v>-0.9524042277382173</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.784426800209958</v>
+        <v>-1.76845601519568</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.3464060790278919</v>
+        <v>-0.3493636609568159</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>0.1356731781422534</v>
       </c>
       <c r="E68" t="n">
-        <v>-0.9830488060108205</v>
+        <v>-1.003404021287481</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.817108159225524</v>
+        <v>-1.800257497522439</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.3720956451066404</v>
+        <v>-0.3762793879310576</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>0.1001983601774424</v>
       </c>
       <c r="E69" t="n">
-        <v>-1.007537395500017</v>
+        <v>-1.030075775297921</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.851982126877062</v>
+        <v>-1.83120113942809</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.3902739919385421</v>
+        <v>-0.3939509006059005</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>0.06418668511919709</v>
       </c>
       <c r="E70" t="n">
-        <v>-1.005022112944178</v>
+        <v>-1.027485726833821</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.884909819885112</v>
+        <v>-1.865571420960811</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.4154724640514448</v>
+        <v>-0.4213766097754437</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>0.02710417981226456</v>
       </c>
       <c r="E71" t="n">
-        <v>-1.006983340769319</v>
+        <v>-1.025748009723905</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.910135837332637</v>
+        <v>-1.890166256740695</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.4251243493032606</v>
+        <v>-0.4312378395703925</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.01110451549179286</v>
       </c>
       <c r="E72" t="n">
-        <v>-1.011996591670661</v>
+        <v>-1.034036007407114</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.954133606820795</v>
+        <v>-1.934928999521805</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.4299140894893786</v>
+        <v>-0.435742682295555</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.05026651862647621</v>
       </c>
       <c r="E73" t="n">
-        <v>-0.976286032856152</v>
+        <v>-0.999703502333303</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.972705458433021</v>
+        <v>-1.950356747939234</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.4422008827502518</v>
+        <v>-0.4478720736442982</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.08987837972162083</v>
       </c>
       <c r="E74" t="n">
-        <v>-0.9218108050870565</v>
+        <v>-0.9435495831713403</v>
       </c>
       <c r="F74" t="n">
-        <v>-2.012296761391097</v>
+        <v>-1.991561420496643</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.4438787871335583</v>
+        <v>-0.4511413113592397</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.1296893000667811</v>
       </c>
       <c r="E75" t="n">
-        <v>-0.8635052017862758</v>
+        <v>-0.8859184470640369</v>
       </c>
       <c r="F75" t="n">
-        <v>-2.036725538153684</v>
+        <v>-2.014884448826516</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.4503275434735272</v>
+        <v>-0.4572233212439455</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.1694827877991919</v>
       </c>
       <c r="E76" t="n">
-        <v>-0.7728031369308843</v>
+        <v>-0.7941499842539642</v>
       </c>
       <c r="F76" t="n">
-        <v>-2.071332709564162</v>
+        <v>-2.052712063359175</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.4413477643865068</v>
+        <v>-0.4472755203973252</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.2090302889306503</v>
       </c>
       <c r="E77" t="n">
-        <v>-0.6803232174779837</v>
+        <v>-0.7041412748215057</v>
       </c>
       <c r="F77" t="n">
-        <v>-2.067593627141512</v>
+        <v>-2.051243503519001</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.425942839246337</v>
+        <v>-0.4306066579027509</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.247916230119975</v>
       </c>
       <c r="E78" t="n">
-        <v>-0.5681239864734281</v>
+        <v>-0.5912258651167582</v>
       </c>
       <c r="F78" t="n">
-        <v>-2.074565744839314</v>
+        <v>-2.060782846403644</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.4179153417277034</v>
+        <v>-0.4225555500972979</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.2846209915195893</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.410400974442614</v>
+        <v>-0.4331801791660775</v>
       </c>
       <c r="F79" t="n">
-        <v>-2.059094710896049</v>
+        <v>-2.046798473520448</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.3923816035419637</v>
+        <v>-0.3965873826340791</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.3186107380954425</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.2718542373666061</v>
+        <v>-0.2961460744656396</v>
       </c>
       <c r="F80" t="n">
-        <v>-2.026036374300931</v>
+        <v>-2.013777126374681</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.3733343981551041</v>
+        <v>-0.378013957002731</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.3491666250743028</v>
       </c>
       <c r="E81" t="n">
-        <v>-0.06997998898330771</v>
+        <v>-0.09287567112174751</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.990564279383299</v>
+        <v>-1.97656416630889</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.3478022339884856</v>
+        <v>-0.353489165073745</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.3754676024228583</v>
       </c>
       <c r="E82" t="n">
-        <v>0.1034564559354512</v>
+        <v>0.08218516153019369</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.94690413699666</v>
+        <v>-1.932482186797743</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.3302912712640155</v>
+        <v>-0.3388224549014652</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.3967953548082647</v>
       </c>
       <c r="E83" t="n">
-        <v>0.308060053475085</v>
+        <v>0.2848889179904175</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.890412590733179</v>
+        <v>-1.877523735158408</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.289521027984085</v>
+        <v>-0.2962247754217047</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.411817618096976</v>
       </c>
       <c r="E84" t="n">
-        <v>0.5233355006571374</v>
+        <v>0.5048423500009757</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.811135543669748</v>
+        <v>-1.800329902402019</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.2607967530394688</v>
+        <v>-0.2693452508872528</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.4212891566989155</v>
       </c>
       <c r="E85" t="n">
-        <v>0.7083771885572463</v>
+        <v>0.6921018308429971</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.695679667103222</v>
+        <v>-1.68525808650109</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.237095173110923</v>
+        <v>-0.2474836993115076</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.4261529450998896</v>
       </c>
       <c r="E86" t="n">
-        <v>0.9210193017493628</v>
+        <v>0.9029841906574995</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.607580242864901</v>
+        <v>-1.599835281778541</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.2031734870277719</v>
+        <v>-0.2134502578707441</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.4283001313214148</v>
       </c>
       <c r="E87" t="n">
-        <v>1.134645176892292</v>
+        <v>1.119311082612581</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.490200914932145</v>
+        <v>-1.486066753710048</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.1629856308227227</v>
+        <v>-0.1711028474312704</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.4303109584430413</v>
       </c>
       <c r="E88" t="n">
-        <v>1.307089989764632</v>
+        <v>1.294932266071705</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.332954043685524</v>
+        <v>-1.326709909831324</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.1374219862736783</v>
+        <v>-0.1468629529632398</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.433380418247817</v>
       </c>
       <c r="E89" t="n">
-        <v>1.441761491763997</v>
+        <v>1.43124861805283</v>
       </c>
       <c r="F89" t="n">
-        <v>-1.151055671970653</v>
+        <v>-1.14438419192502</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.1097066575858158</v>
+        <v>-0.1190752193957975</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-0.4396921047126542</v>
       </c>
       <c r="E90" t="n">
-        <v>1.557807625501012</v>
+        <v>1.54817305445953</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.9663020295697418</v>
+        <v>-0.9604073279604707</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.08357321811486045</v>
+        <v>-0.09155192104073363</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-0.448912915986625</v>
       </c>
       <c r="E91" t="n">
-        <v>1.631643288462105</v>
+        <v>1.619466676539723</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.7726063845407217</v>
+        <v>-0.7681629285612899</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.08727688510728096</v>
+        <v>-0.09568214721502663</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-0.460632277140073</v>
       </c>
       <c r="E92" t="n">
-        <v>1.697265719648253</v>
+        <v>1.689655337196764</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.5716545113625056</v>
+        <v>-0.5706030665894767</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.08051175092393061</v>
+        <v>-0.08832832988030982</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-0.4753872135075201</v>
       </c>
       <c r="E93" t="n">
-        <v>1.708449125505094</v>
+        <v>1.703479947139148</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.4002863275691357</v>
+        <v>-0.400324104028047</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.0837133058166562</v>
+        <v>-0.08999206809152464</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.4930384590543028</v>
       </c>
       <c r="E94" t="n">
-        <v>1.695828640190505</v>
+        <v>1.691608694926298</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.215831748801272</v>
+        <v>-0.216444042239458</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.100761506919464</v>
+        <v>-0.1046036875945589</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.5128971183274101</v>
       </c>
       <c r="E95" t="n">
-        <v>1.664086970590355</v>
+        <v>1.660646164791192</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.07352310602535556</v>
+        <v>-0.07260230483939464</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.1068923113969301</v>
+        <v>-0.1114349305810039</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.5312344453039179</v>
       </c>
       <c r="E96" t="n">
-        <v>1.606399169794685</v>
+        <v>1.606706103523339</v>
       </c>
       <c r="F96" t="n">
-        <v>0.03046918928073829</v>
+        <v>0.02756512400193852</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.1175515688863784</v>
+        <v>-0.1198512108225987</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.5441971232315518</v>
       </c>
       <c r="E97" t="n">
-        <v>1.516519529930173</v>
+        <v>1.520626145817647</v>
       </c>
       <c r="F97" t="n">
-        <v>0.09308366992607965</v>
+        <v>0.08982230230674462</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.1382798266947871</v>
+        <v>-0.1393438636207864</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.5459486883949053</v>
       </c>
       <c r="E98" t="n">
-        <v>1.381275084970654</v>
+        <v>1.382321807686319</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1422402870843001</v>
+        <v>0.1398147236183758</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.1469306357854557</v>
+        <v>-0.1481583707000703</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.5342202813329981</v>
       </c>
       <c r="E99" t="n">
-        <v>1.253628430309654</v>
+        <v>1.254758576038748</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1519000424317224</v>
+        <v>0.147532139370113</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.1613628171086617</v>
+        <v>-0.1620585335602766</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.5066238696657401</v>
       </c>
       <c r="E100" t="n">
-        <v>1.124591916764545</v>
+        <v>1.124947645085959</v>
       </c>
       <c r="F100" t="n">
-        <v>0.168140771725303</v>
+        <v>0.1620666319362036</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.1685135859767307</v>
+        <v>-0.169195136256254</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.4698305579930132</v>
       </c>
       <c r="E101" t="n">
-        <v>1.014936300660011</v>
+        <v>1.017103724990042</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1805267281908181</v>
+        <v>0.1752065435608217</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.192432380544016</v>
+        <v>-0.1932792028312758</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.4213767888736651</v>
       </c>
       <c r="E102" t="n">
-        <v>0.8980449186548579</v>
+        <v>0.8993529285446588</v>
       </c>
       <c r="F102" t="n">
-        <v>0.1741456546730651</v>
+        <v>0.1659780694526358</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.1927849608271874</v>
+        <v>-0.1915100053389338</v>
       </c>
     </row>
   </sheetData>
